--- a/lab1/Test_Skype.xlsx
+++ b/lab1/Test_Skype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="4800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
-  <si>
-    <t>Atom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
   <si>
     <t>№ тест кейса</t>
   </si>
@@ -390,6 +387,247 @@
   </si>
   <si>
     <t>Параметри</t>
+  </si>
+  <si>
+    <t>Обліковий запис і профіль</t>
+  </si>
+  <si>
+    <t>Загальні</t>
+  </si>
+  <si>
+    <t>Вигляд</t>
+  </si>
+  <si>
+    <t>Аудіо ти відео</t>
+  </si>
+  <si>
+    <t>Виклик</t>
+  </si>
+  <si>
+    <t>Повідомлення</t>
+  </si>
+  <si>
+    <t>Сповіщення</t>
+  </si>
+  <si>
+    <t>Контакти</t>
+  </si>
+  <si>
+    <t>Зворотній зв'язок і довідка</t>
+  </si>
+  <si>
+    <t>Аватар</t>
+  </si>
+  <si>
+    <t>Ім'я в Skype</t>
+  </si>
+  <si>
+    <t>Адреса ел. Пошти</t>
+  </si>
+  <si>
+    <t>День народження</t>
+  </si>
+  <si>
+    <t>Зі Skype на телефон</t>
+  </si>
+  <si>
+    <t>Skype-номер</t>
+  </si>
+  <si>
+    <t>Ваш профіль</t>
+  </si>
+  <si>
+    <t>Ваш обліковий запис</t>
+  </si>
+  <si>
+    <t>Закрити обліковий запис</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути відповідний напис</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути відповідний напис
+4. Натиснути на зображення поточного аватару
+5. Завантижити новий аватар</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути відповідний напис
+4. Натиснути "редагувати"
+5. Натиснути копіювати
+6. Вставити в текстовий рекактор текст з БО</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути відповідний напис
+4. Натиснути "копіювати"
+5. Вставити в текстовий редактор текст з БО</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути відповідний напис
+4. Натиснути "Переглянути всі передплати"</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. Вікриється вікно з зображенням поточного аватару
+4. Відобразиться спливаюче вікно
+5. Аватар зміниться на новий</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. З'явиться спливаюче вікно
+4. Спливаюче вікно зникне
+5. Відобразиться напис виду "live:name"</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. Відобразиться спливаюче вікно
+4. Відкриється відповідна сторінка в браузері
+5. Спливаюче вікно зникне
+6. З'явиться напис з адресою ел. Скриньки</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. Відкриється відповідна сторінка в браузері</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. З'явиться список тарифів
+4. Відкриється відповідна сторінка в браузері</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. З'явиться вікно для підтвердження особистості
+</t>
+  </si>
+  <si>
+    <t>Мова</t>
+  </si>
+  <si>
+    <t>Запускати Скайп автоматично</t>
+  </si>
+  <si>
+    <t>Запускати скайп у фонофому режимі</t>
+  </si>
+  <si>
+    <t>Після закриття продовжити роботу Скайп</t>
+  </si>
+  <si>
+    <t>Надсилати дані про розташування службі Бінг</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути відповідний напис
+4. Обрати іншу мову інтерфейсу</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. З'явиться вікно для вибору мови інтерфейсу
+4. Мова інтерфейсу зміниться на обрану</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3. Натиснути повзунок поряд з відповідним написом</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми 
+3. Повзунок змінить положення й відповідно зміниться поведінка програми</t>
+  </si>
+  <si>
+    <t>Колір</t>
+  </si>
+  <si>
+    <t>Режим</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3.  Натиснути відповідний напис
+4.  Обрати інший колір</t>
+  </si>
+  <si>
+    <t>4. Обрати іншу тему</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань вигляду
+4. Колір повідомлень зміниться на обраний</t>
+  </si>
+  <si>
+    <t>4. Оформлення програми зміниться відповідно до обраної теми</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3.  Натиснути відповідний напис</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань аудіо й відео</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань викликів</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань повідомлень</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань сповіщень</t>
+  </si>
+  <si>
+    <t>Заблоковані контакти</t>
+  </si>
+  <si>
+    <t>Конфіденційність</t>
+  </si>
+  <si>
+    <t>1. Натиснути кнопку меню
+2. Обрати пункт "параметри"
+3.  Натиснути відповідний напис
+4. Натиснути відповідний пункт</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань контактів
+4. Відобразиться список заблокованих контактів</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно налаштувань контактів
+4. Відобразиться вікно налаштувань конфіденційності</t>
+  </si>
+  <si>
+    <t>1. З'явиться вспливаюче вікно
+2. Відкриється вікно налаштувань програми
+3. Відкриється вікно зворотнього зв'язку й довідки</t>
   </si>
 </sst>
 </file>
@@ -487,14 +725,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -818,182 +1056,182 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1049,18 +1287,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="36" style="3" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" style="3" customWidth="1"/>
@@ -1068,47 +1306,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -1116,36 +1354,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
@@ -1153,153 +1391,559 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="8"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="8"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="8"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="7"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="7"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="7"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="8"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="8"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="7"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="7"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>